--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 33,74</t>
+          <t>-10,23; 51,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 19,46</t>
+          <t>-19,19; 46,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 16,43</t>
+          <t>-20,64; 50,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 66,99</t>
+          <t>-15,48; 49,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 33,27</t>
+          <t>-12,65; 151,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 24,62</t>
+          <t>-22,15; 129,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 142,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 204,47</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,45</t>
+          <t>-12,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-13,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,23%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>-21,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -2,85</t>
+          <t>-23,55; -0,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 1,6</t>
+          <t>-24,86; -1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -2,98</t>
+          <t>-25,41; -1,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,68; -5,62</t>
+          <t>-20,76; 2,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 3,82</t>
+          <t>-33,82; -1,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,0; -5,88</t>
+          <t>-35,44; -3,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,42; -2,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-30,71; 5,84</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,29</t>
+          <t>-26,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,01</t>
+          <t>-21,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,44</t>
+          <t>-25,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-45,07%</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-45,08%</t>
+          <t>-45,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-44,63%</t>
+          <t>-38,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-43,79%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-28,6%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,95; -16,25</t>
+          <t>-38,36; -13,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -16,98</t>
+          <t>-33,05; -10,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -16,92</t>
+          <t>-37,66; -13,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,67; -31,19</t>
+          <t>-28,48; -2,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,68; -31,05</t>
+          <t>-59,98; -26,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -30,91</t>
+          <t>-52,99; -19,28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-57,72; -26,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; -3,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -7,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -8,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -12,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; -15,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-15,04</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-14,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-16,34</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-8,32</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-24,6%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-24,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-26,38%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-23,19; -5,76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; -6,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-24,01; -6,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-16,69; 2,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; -10,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-34,89; -11,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,96; -12,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 5,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22,74%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>29,37%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.96375810120141</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.9298727666216</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.589601250761858</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.04355129312213</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2027658770157582</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.05702797395152438</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1254948770873151</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3573060306519783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 51,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; 46,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; 50,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 49,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 151,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-22,15; 129,1</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-24,92; 142,62</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 204,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.21874326058578</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.30691890987034</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.61959445742224</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.1071275723678</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.123204887505319</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2096111977209785</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2297547228307233</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1814899019642508</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>47.34425694362734</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>41.16298722347287</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>48.52493942849631</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>52.9222029801445</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.276144586090849</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.001320247351166</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.386075352039626</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.246858455231546</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-12,48</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-13,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-14,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,44</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-19,68%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-21,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-15,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; -0,86</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,86; -1,7</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,41; -1,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 2,9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-33,82; -1,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-35,44; -3,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,42; -2,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,71; 5,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-12.78680333031612</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-12.11328406139295</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-14.62541966011499</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.924140272980752</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2059563632032163</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1936914309892525</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2285627415128135</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1633051606903687</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-26,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-21,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-25,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-45,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-38,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-43,79%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-28,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-24.28166735330944</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.52679498401749</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-26.29243766858792</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.50883879976412</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3447631138245393</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3378493876936685</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3687296422387733</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3196638855214409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-38,36; -13,26</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; -10,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-37,66; -13,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,48; -2,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-59,98; -26,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-52,99; -19,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-57,72; -26,01</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,05; -3,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.5796045319519821</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.2706861543169421</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.860914053601023</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.096162462280305</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.005970755287561984</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.0007659212854549515</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.02897266343327459</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04231567222688352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-28.29467367962787</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-22.01906947395175</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-26.25569796582424</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-16.77727057099276</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4794146946033995</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3888005028104563</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.44801423801181</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2987777488280414</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-39.89499406172806</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-33.63946356610703</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-37.88324851926441</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-28.64283364489798</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6147991238867336</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5376950976707333</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5855509546250266</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4601022958589862</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-13.91743346899216</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9.908203825210322</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-13.75908949784568</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-2.529876459062238</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.2862562749530247</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.2002104253994742</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.2704477107441767</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.04972063660670527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-15,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-14,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-16,34</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,32</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-24,6%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-24,08%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-26,38%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-14,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; -5,76</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; -6,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-24,01; -6,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 2,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,72; -10,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-34,89; -11,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-36,96; -12,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 5,63</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-15.88158521597997</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-14.02519179181955</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-16.29718911767641</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-8.21874218028713</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2596735554202422</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2291816194536318</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2644785265108636</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1429054800365066</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-23.80837510204031</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-22.24060382937519</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-24.0344306878958</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-16.70106274575882</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3600118599762201</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3406657810162421</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3692576614631404</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2647211014551138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.216288803619514</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-5.526395477304926</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-6.864299377425801</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.24301024582499</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.1281538127254604</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1050787322523771</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.1261071491982184</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06686464539470298</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
